--- a/biology/Zoologie/Clanis_schwartzi/Clanis_schwartzi.xlsx
+++ b/biology/Zoologie/Clanis_schwartzi/Clanis_schwartzi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Clanis schwartzi regroupe des insectes lépidoptères de la famille des Sphingidae, sous-famille des Sphinginae, de la tribu des Sphingini et du genre Clanis.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Avers du paratype de la femelle(coll.MHNT)
@@ -544,7 +558,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Répartition
 Il se trouve en Chine centrale et méridionale, au nord du Laos (Topotype) et au nord du Vietnam.
@@ -577,12 +593,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite par l'entomologiste français Jean-Marie Cadiou en 1993[1].
-Le topotype est la région de Ban Kheum, au Laos à 800 m d'altitude.
-Synonymie
-Clanis bilineata f acuta Mell, 1922[2].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce a été décrite par l'entomologiste français Jean-Marie Cadiou en 1993.
+Le topotype est la région de Ban Kheum, au Laos à 800 m d'altitude.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Clanis_schwartzi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clanis_schwartzi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Clanis bilineata f acuta Mell, 1922.</t>
         </is>
       </c>
     </row>
